--- a/XbufferExcelToData/XbufferExcelToData/bin/Debug/Excels/author_info.xlsx
+++ b/XbufferExcelToData/XbufferExcelToData/bin/Debug/Excels/author_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TonyTang\Work\Projects\MyGitHubProjects\XbufferExcellToData\XbufferExcelToDataUnityProject\Conf\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TonyTang\Work\Projects\MyGitHubProjects\XbufferExcellToData\XbufferExcelToData\XbufferExcelToData\bin\Debug\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -84,42 +84,90 @@
     <t>TangHuan</t>
   </si>
   <si>
+    <t>ZhouXiaoYun</t>
+  </si>
+  <si>
+    <t>2#4#6#8</t>
+  </si>
+  <si>
+    <t>范江</t>
+  </si>
+  <si>
+    <t>3#6#9</t>
+  </si>
+  <si>
+    <t>testclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试嵌套类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int id;int num;string des}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testclassarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试嵌套类型数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int param1;bool param2;string param3}[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;22;test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;11;test2</t>
+  </si>
+  <si>
+    <t>testclasstwoarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试嵌套类型二维数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;true;test4#102;false;test34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;true;test5#101;false;test35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int param11;bool param22;string param33}[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;true;test4#102;false;test34|201;true;test5#202;false;test54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102;true;test5#103;false;test35|203;true;test6#203;false;test65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1#3#5#7</t>
-  </si>
-  <si>
-    <t>ZhouXiaoYun</t>
-  </si>
-  <si>
-    <t>2#4#6#8</t>
-  </si>
-  <si>
-    <t>范江</t>
-  </si>
-  <si>
-    <t>3#6#9</t>
-  </si>
-  <si>
-    <t>testclass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试嵌套类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{int id;int num;string des}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testclassarray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试嵌套类型数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{int param1;bool param2;string param3}[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,46 +175,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2;22;test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;11;test2</t>
-  </si>
-  <si>
-    <t>testclasstwoarray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试嵌套类型二维数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100;true;test3#101;false;test33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101;true;test4#102;false;test34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;true;test5#101;false;test35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{int param11;bool param22;string param33}[][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100;true;test3#101;false;test33|200;true;test4#201;false;test43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101;true;test4#102;false;test34|201;true;test5#202;false;test54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102;true;test5#103;false;test35|203;true;test6#203;false;test65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -579,13 +592,13 @@
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="30.125" customWidth="1"/>
-    <col min="9" max="9" width="43.125" customWidth="1"/>
-    <col min="10" max="10" width="53.125" customWidth="1"/>
+    <col min="7" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="30.125" customWidth="1"/>
+    <col min="10" max="10" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,16 +621,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -640,16 +656,19 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -672,19 +691,22 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -698,30 +720,33 @@
         <v>199005.29</v>
       </c>
       <c r="E7" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5">
         <v>12345678</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>27</v>
@@ -736,24 +761,27 @@
         <v>12345678</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>27</v>
@@ -768,16 +796,19 @@
         <v>12345678</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/XbufferExcelToData/XbufferExcelToData/bin/Debug/Excels/author_info.xlsx
+++ b/XbufferExcelToData/XbufferExcelToData/bin/Debug/Excels/author_info.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TonyTang\Work\Projects\MyGitHubProjects\XbufferExcellToData\XbufferExcelToData\XbufferExcelToData\bin\Debug\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="t_AuthorInfo" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -42,6 +37,18 @@
     <t>luckynumber</t>
   </si>
   <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>testclass</t>
+  </si>
+  <si>
+    <t>testclassarray</t>
+  </si>
+  <si>
+    <t>testclasstwoarray</t>
+  </si>
+  <si>
     <t>唯一id</t>
   </si>
   <si>
@@ -63,6 +70,18 @@
     <t>幸运数字</t>
   </si>
   <si>
+    <t>星期几</t>
+  </si>
+  <si>
+    <t>测试嵌套类型</t>
+  </si>
+  <si>
+    <t>测试嵌套类型数组</t>
+  </si>
+  <si>
+    <t>测试嵌套类型二维数组</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -81,6 +100,18 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>{int id;int num;string des}</t>
+  </si>
+  <si>
+    <t>{int param1;bool param2;string param3}[]</t>
+  </si>
+  <si>
+    <t>{int param11;bool param22;string param33}[][]</t>
+  </si>
+  <si>
     <t>TangHuan</t>
   </si>
   <si>
@@ -90,104 +121,41 @@
     <t>2#4#6#8</t>
   </si>
   <si>
+    <t>2;22;test2</t>
+  </si>
+  <si>
+    <t>101;true;test4#102;false;test34</t>
+  </si>
+  <si>
+    <t>101;true;test4|201;true;test5#202;false;test54</t>
+  </si>
+  <si>
     <t>范江</t>
   </si>
   <si>
     <t>3#6#9</t>
   </si>
   <si>
-    <t>testclass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试嵌套类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{int id;int num;string des}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testclassarray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试嵌套类型数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{int param1;bool param2;string param3}[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;22;test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1;11;test2</t>
   </si>
   <si>
-    <t>testclasstwoarray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试嵌套类型二维数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101;true;test4#102;false;test34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100;true;test5#101;false;test35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{int param11;bool param22;string param33}[][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101;true;test4#102;false;test34|201;true;test5#202;false;test54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102;true;test5#103;false;test35|203;true;test6#203;false;test65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weekday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#3#5#7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;11;test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;true;test3#101;false;test33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;true;test3#101;false;test33|200;true;test4#201;false;test43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102;true;test5#103;false;test35|203;true;test6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,29 +164,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -226,9 +510,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -245,17 +771,65 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -283,9 +857,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -572,33 +1143,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="8" width="18.125" customWidth="1"/>
-    <col min="9" max="9" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="28.125" customWidth="1"/>
     <col min="10" max="10" width="43.125" customWidth="1"/>
     <col min="11" max="11" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,97 +1193,97 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="3" customFormat="1"/>
+    <row r="5" s="2" customFormat="1"/>
+    <row r="6" s="2" customFormat="1"/>
+    <row r="7" s="4" customFormat="1" spans="1:11">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -725,28 +1297,20 @@
       <c r="F7" s="5">
         <v>12345678</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>27</v>
@@ -761,27 +1325,27 @@
         <v>12345678</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2">
         <v>2</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>27</v>
@@ -796,24 +1360,24 @@
         <v>12345678</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/XbufferExcelToData/XbufferExcelToData/bin/Debug/Excels/author_info.xlsx
+++ b/XbufferExcelToData/XbufferExcelToData/bin/Debug/Excels/author_info.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TonyTang\Work\Projects\MyGitHubProjects\XbufferExcellToData\XbufferExcelToData\XbufferExcelToData\bin\Debug\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="t_AuthorInfo" sheetId="1" r:id="rId1"/>
@@ -127,9 +132,6 @@
     <t>101;true;test4#102;false;test34</t>
   </si>
   <si>
-    <t>101;true;test4|201;true;test5#202;false;test54</t>
-  </si>
-  <si>
     <t>范江</t>
   </si>
   <si>
@@ -143,19 +145,17 @@
   </si>
   <si>
     <t>102;true;test5#103;false;test35|203;true;test6</t>
+  </si>
+  <si>
+    <t>|201;true;test5#202;false;test54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,345 +164,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -510,251 +186,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -775,61 +209,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -857,6 +243,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1143,19 +532,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
@@ -1170,7 +559,7 @@
     <col min="11" max="11" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:11">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1275,10 +664,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1"/>
-    <row r="5" s="2" customFormat="1"/>
-    <row r="6" s="2" customFormat="1"/>
-    <row r="7" s="4" customFormat="1" spans="1:11">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1305,7 +694,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1337,15 +726,15 @@
         <v>36</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>27</v>
@@ -1360,24 +749,24 @@
         <v>12345678</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/XbufferExcelToData/XbufferExcelToData/bin/Debug/Excels/author_info.xlsx
+++ b/XbufferExcelToData/XbufferExcelToData/bin/Debug/Excels/author_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TonyTang\Work\Projects\MyGitHubProjects\XbufferExcellToData\XbufferExcelToData\XbufferExcelToData\bin\Debug\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TonyTang\Work\Projects\MyGitHubProjects\XbufferExcellToData\XbufferExcelToDataUnityProject\Conf\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -148,6 +148,22 @@
   </si>
   <si>
     <t>|201;true;test5#202;false;test54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试注释1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试注释类型2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,15 +567,15 @@
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="28.125" customWidth="1"/>
-    <col min="10" max="10" width="43.125" customWidth="1"/>
-    <col min="11" max="11" width="53.125" customWidth="1"/>
+    <col min="6" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="28.125" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="12" max="12" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,23 +594,23 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -614,22 +630,28 @@
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -649,25 +671,31 @@
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -686,15 +714,16 @@
       <c r="F7" s="5">
         <v>12345678</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="G7" s="5"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -713,23 +742,24 @@
       <c r="F8" s="5">
         <v>12345678</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>2</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -748,19 +778,20 @@
       <c r="F9" s="5">
         <v>12345678</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
